--- a/db/mst_data/mst_api_config.xlsx
+++ b/db/mst_data/mst_api_config.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Mst::DocomoApi</t>
   </si>
   <si>
-    <t>385a675047596d536a384b344a4651756c533864533372716170786d4949756b5754572f4e4f7a43694230</t>
+    <t>55536d68466b6b3972453971666c6e5348676658752f326b5044684f6550336f486667773548796f597138</t>
   </si>
   <si>
     <t>Mst::TwitterApi</t>
@@ -90,7 +90,7 @@
       <rPr>
         <u val="single"/>
         <sz val="0"/>
-        <color indexed="13"/>
+        <color indexed="12"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>https://lr.capio.jp/webapis/iminos/synana_k/1_1/</t>
@@ -101,6 +101,20 @@
   </si>
   <si>
     <t>article</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>http://54.92.123.84/search</t>
+    </r>
+  </si>
+  <si>
+    <t>torendo</t>
   </si>
   <si>
     <r>
@@ -110,21 +124,27 @@
         <color indexed="14"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t>http://54.92.123.84/search</t>
+      <t>https://api.apigw.smt.docomo.ne.jp/webCuration/v2/search</t>
     </r>
   </si>
   <si>
-    <t>torendo</t>
+    <t>environment_sensor</t>
+  </si>
+  <si>
+    <t>https://api.apigw.smt.docomo.ne.jp/environmentSensor/v1/sensor</t>
+  </si>
+  <si>
+    <t>environment_data</t>
   </si>
   <si>
     <r>
       <rPr>
         <u val="single"/>
-        <sz val="11"/>
-        <color indexed="12"/>
+        <sz val="8"/>
+        <color indexed="11"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t>https://api.apigw.smt.docomo.ne.jp/webCuration/v2/search</t>
+      <t>https://api.apigw.smt.docomo.ne.jp/environmentSensor/v1/data</t>
     </r>
   </si>
 </sst>
@@ -135,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -147,19 +167,24 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Verdana"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="0"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -177,13 +202,19 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="ヒラギノ角ゴ Pro W3"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="0"/>
       <color indexed="12"/>
       <name val="Verdana"/>
     </font>
     <font>
       <u val="single"/>
-      <sz val="0"/>
+      <sz val="11"/>
       <color indexed="13"/>
       <name val="Verdana"/>
     </font>
@@ -194,9 +225,14 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="15"/>
+      <name val="Monaco"/>
+    </font>
+    <font>
       <u val="single"/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <sz val="8"/>
+      <color indexed="11"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -214,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -248,6 +284,15 @@
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -324,74 +369,80 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -414,9 +465,10 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ff222222"/>
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff1155cc"/>
+      <rgbColor rgb="ff222222"/>
+      <rgbColor rgb="fff4f4f4"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1681,67 +1733,67 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="B5" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C5" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C6" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="10">
+      <c r="D6" t="s" s="11">
         <v>15</v>
       </c>
       <c r="E6" s="3"/>
@@ -1794,79 +1846,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="14" customWidth="1"/>
-    <col min="9" max="256" width="13" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="15" customWidth="1"/>
+    <col min="9" max="256" width="13" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="10">
+      <c r="A1" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="10">
+      <c r="B1" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="C1" t="s" s="10">
+      <c r="C1" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="D1" t="s" s="10">
+      <c r="D1" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E1" t="s" s="10">
+      <c r="E1" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="F1" t="s" s="10">
+      <c r="F1" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="G1" t="s" s="10">
+      <c r="G1" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="H1" t="s" s="10">
+      <c r="H1" t="s" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C2" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="D2" t="s" s="15">
+      <c r="D2" t="s" s="16">
         <v>24</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="E2" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18">
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19">
         <v>42004</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="11">
+      <c r="C3" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D3" t="s" s="19">
+      <c r="D3" t="s" s="20">
         <v>27</v>
       </c>
-      <c r="E3" t="s" s="20">
+      <c r="E3" t="s" s="21">
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
@@ -1874,19 +1926,19 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="D4" t="s" s="21">
+      <c r="D4" t="s" s="22">
         <v>29</v>
       </c>
-      <c r="E4" t="s" s="20">
+      <c r="E4" t="s" s="21">
         <v>25</v>
       </c>
       <c r="F4" s="3"/>
@@ -1894,21 +1946,41 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s" s="11">
+        <v>25</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="24">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s" s="11">
+        <v>25</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>

--- a/db/mst_data/mst_api_config.xlsx
+++ b/db/mst_data/mst_api_config.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Doz7ypYbxH87zIvlgxcwezDYgHkvynQ589xok9vHfVowUXzHqE</t>
+  </si>
+  <si>
+    <t>Mst::GracenoteApi</t>
+  </si>
+  <si>
+    <t>3917824-B9122725FEFB93D3CB6580EB07DF3F86</t>
+  </si>
+  <si>
+    <t>B9122725FEFB93D3CB6580EB07DF3F86</t>
   </si>
   <si>
     <t>mst_api_config_id</t>
@@ -90,7 +99,7 @@
       <rPr>
         <u val="single"/>
         <sz val="0"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>https://lr.capio.jp/webapis/iminos/synana_k/1_1/</t>
@@ -101,20 +110,6 @@
   </si>
   <si>
     <t>article</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>http://54.92.123.84/search</t>
-    </r>
-  </si>
-  <si>
-    <t>torendo</t>
   </si>
   <si>
     <r>
@@ -122,6 +117,20 @@
         <u val="single"/>
         <sz val="11"/>
         <color indexed="14"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>http://54.92.123.84/search</t>
+    </r>
+  </si>
+  <si>
+    <t>torendo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="15"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>https://api.apigw.smt.docomo.ne.jp/webCuration/v2/search</t>
@@ -147,6 +156,12 @@
       <t>https://api.apigw.smt.docomo.ne.jp/environmentSensor/v1/data</t>
     </r>
   </si>
+  <si>
+    <t>timeline</t>
+  </si>
+  <si>
+    <t>http://devapi.gracenote.com/v1/timeline/</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -207,14 +222,13 @@
       <name val="ヒラギノ角ゴ Pro W3"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="0"/>
+      <sz val="14"/>
       <color indexed="12"/>
-      <name val="Verdana"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <u val="single"/>
-      <sz val="11"/>
+      <sz val="0"/>
       <color indexed="13"/>
       <name val="Verdana"/>
     </font>
@@ -225,8 +239,14 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="15"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color indexed="15"/>
+      <color indexed="16"/>
       <name val="Monaco"/>
     </font>
     <font>
@@ -234,6 +254,11 @@
       <sz val="8"/>
       <color indexed="11"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="11"/>
+      <name val="Menlo Regular"/>
     </font>
   </fonts>
   <fills count="3">
@@ -250,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -363,13 +388,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -415,10 +451,13 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="10" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -430,20 +469,35 @@
     <xf numFmtId="14" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,6 +519,7 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="ff484848"/>
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff1155cc"/>
       <rgbColor rgb="ff222222"/>
@@ -1799,10 +1854,18 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s" s="15">
+        <v>18</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1840,21 +1903,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="15" customWidth="1"/>
-    <col min="9" max="256" width="13" style="15" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="16" customWidth="1"/>
+    <col min="9" max="256" width="13" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1862,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s" s="11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s" s="11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s" s="11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s" s="11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s" s="11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s" s="11">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -1891,17 +1954,17 @@
         <v>2</v>
       </c>
       <c r="C2" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s" s="16">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D2" t="s" s="17">
+        <v>27</v>
       </c>
       <c r="E2" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19">
+        <v>28</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20">
         <v>42004</v>
       </c>
     </row>
@@ -1913,13 +1976,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s" s="20">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s" s="21">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="D3" t="s" s="21">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s" s="22">
+        <v>28</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1933,13 +1996,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s" s="22">
         <v>28</v>
-      </c>
-      <c r="D4" t="s" s="22">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s" s="21">
-        <v>25</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1953,13 +2016,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s" s="23">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="D5" t="s" s="24">
+        <v>34</v>
       </c>
       <c r="E5" t="s" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1973,24 +2036,34 @@
         <v>4</v>
       </c>
       <c r="C6" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="24">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D6" t="s" s="25">
+        <v>36</v>
       </c>
       <c r="E6" t="s" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="26">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="27">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s" s="11">
+        <v>28</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2005,25 +2078,15 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
